--- a/CASUAL/LA ONT/PEREY, LUCIANA.xlsx
+++ b/CASUAL/LA ONT/PEREY, LUCIANA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>UT(1-2-38)</t>
+  </si>
+  <si>
+    <t>UT(2-2-40)</t>
   </si>
 </sst>
 </file>
@@ -619,6 +622,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -631,20 +643,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,7 +1344,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1387,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1451,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1511,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1577,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1640,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1738,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1797,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1862,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1905,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1980,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2166,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2232,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2290,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2356,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2412,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2487,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2530,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2596,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2652,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2750,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2813,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,7 +3292,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,14 +3322,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3337,14 +3340,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3357,14 +3360,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3390,18 +3393,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3448,7 +3451,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>45.420999999999999</v>
+        <v>43.088000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4241,11 +4244,15 @@
       <c r="A48" s="40">
         <v>44682</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>2.3330000000000002</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -5461,17 +5468,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5540,14 +5547,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5561,17 +5568,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5585,17 +5592,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5621,18 +5628,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7815,17 +7822,17 @@
         <v>37.75</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.329</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/PEREY, LUCIANA.xlsx
+++ b/CASUAL/LA ONT/PEREY, LUCIANA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>UT(2-2-40)</t>
+  </si>
+  <si>
+    <t>UT(0-6-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-7)</t>
+  </si>
+  <si>
+    <t>UT(0-5-0)</t>
   </si>
 </sst>
 </file>
@@ -622,15 +631,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -643,11 +643,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1344,7 +1353,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1396,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1460,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1520,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1586,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1649,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1747,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1806,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1871,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1914,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1989,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2175,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2241,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2299,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2365,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2421,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2496,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2539,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2605,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2661,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2759,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2822,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2888,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K116" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K117" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3287,12 +3296,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K116"/>
+  <dimension ref="A2:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,14 +3331,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3340,14 +3349,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3360,14 +3369,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3393,18 +3402,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3451,7 +3460,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>43.088000000000001</v>
+        <v>41.573</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4332,11 +4341,15 @@
       <c r="A52" s="40">
         <v>44805</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>0.625</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
@@ -4372,11 +4385,15 @@
       <c r="A54" s="40">
         <v>44866</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
@@ -4415,12 +4432,14 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="20"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>0.75</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -4433,19 +4452,17 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>44957</v>
+      <c r="A57" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="B57" s="20"/>
-      <c r="C57" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C57" s="13"/>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
@@ -4454,7 +4471,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4474,7 +4491,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4494,7 +4511,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4514,7 +4531,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4534,7 +4551,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4554,7 +4571,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4574,7 +4591,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4594,7 +4611,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4614,7 +4631,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4634,7 +4651,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4654,17 +4671,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>45260</v>
+      </c>
+      <c r="B68" s="20"/>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39">
-        <v>5</v>
-      </c>
+      <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -4677,17 +4690,23 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="39"/>
+      <c r="A69" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="39">
+        <v>5</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4695,19 +4714,17 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
-        <v>45322</v>
+      <c r="A70" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C70" s="13"/>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4716,7 +4733,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4736,7 +4753,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4756,7 +4773,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4776,18 +4793,18 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45417</v>
+        <v>45412</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4795,15 +4812,19 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>45417</v>
+      </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>0.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>0.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -5451,34 +5472,50 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="41"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="43"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="43"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="15"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="43"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5547,14 +5584,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5568,17 +5605,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5592,17 +5629,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5628,18 +5665,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7821,18 +7858,14 @@
       <c r="B3" s="11">
         <v>37.75</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.3330000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/PEREY, LUCIANA.xlsx
+++ b/CASUAL/LA ONT/PEREY, LUCIANA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>UT(0-5-0)</t>
+  </si>
+  <si>
+    <t>COVID 01/02-07/2024</t>
+  </si>
+  <si>
+    <t>QL(6-0-0)</t>
   </si>
 </sst>
 </file>
@@ -631,6 +637,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -643,20 +658,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,7 +1359,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1402,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1466,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1526,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1592,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1655,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1753,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1812,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1877,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1920,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1995,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2181,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2247,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2305,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2371,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2427,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2502,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2545,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2611,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2667,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2765,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2828,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,9 +3305,9 @@
   <dimension ref="A2:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A42" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,14 +3337,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3349,14 +3355,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3369,14 +3375,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3402,18 +3408,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3460,7 +3466,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>41.573</v>
+        <v>36.323</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3470,7 +3476,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>69.75</v>
+        <v>64.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4735,36 +4741,36 @@
       <c r="A71" s="40">
         <v>45322</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B71" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="13"/>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45351</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C72" s="13"/>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
@@ -4776,15 +4782,13 @@
         <v>45382</v>
       </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
@@ -4796,15 +4800,13 @@
         <v>45412</v>
       </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4816,15 +4818,13 @@
         <v>45417</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13">
-        <v>0.25</v>
-      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>0.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -5505,17 +5505,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5584,14 +5584,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5605,17 +5605,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5629,17 +5629,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5665,18 +5665,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
